--- a/lesson12_1/3年6班.xlsx
+++ b/lesson12_1/3年6班.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,67 +458,1101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>程玫靖</t>
+          <t>陳姵彬</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>張韋成</t>
+          <t>李蓉瑞</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>黃淑芬</t>
+          <t>葉軍仰</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89</v>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>劉佳佩</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>83</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>楊健麟</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>簡國瑋</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>46</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>黃雅慧</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>李立偉</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>黃佩玲</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46</v>
+      </c>
+      <c r="E10" t="n">
+        <v>51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>蔡孟泉</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87</v>
+      </c>
+      <c r="D11" t="n">
+        <v>55</v>
+      </c>
+      <c r="E11" t="n">
+        <v>34</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>楊易政</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31</v>
+      </c>
+      <c r="E12" t="n">
+        <v>95</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>楊韋廷</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>48</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34</v>
+      </c>
+      <c r="D13" t="n">
+        <v>41</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>昌嘉洋</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94</v>
+      </c>
+      <c r="C14" t="n">
+        <v>57</v>
+      </c>
+      <c r="D14" t="n">
+        <v>72</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>沈心利</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>78</v>
+      </c>
+      <c r="F15" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>陳建香</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>59</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>63</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99</v>
+      </c>
+      <c r="F16" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>余丞苓</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>67</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>69</v>
+      </c>
+      <c r="E17" t="n">
+        <v>41</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>藍哲嘉</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>66</v>
+      </c>
+      <c r="C18" t="n">
+        <v>59</v>
+      </c>
+      <c r="D18" t="n">
+        <v>67</v>
+      </c>
+      <c r="E18" t="n">
+        <v>75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>蔡士賢</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>76</v>
+      </c>
+      <c r="E19" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>林淑安</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>92</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32</v>
+      </c>
+      <c r="D20" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>陳奇瑄</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>56</v>
+      </c>
+      <c r="D21" t="n">
+        <v>67</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>蔡至剛</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>48</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>92</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>李佳彥</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>62</v>
+      </c>
+      <c r="C23" t="n">
+        <v>55</v>
+      </c>
+      <c r="D23" t="n">
+        <v>49</v>
+      </c>
+      <c r="E23" t="n">
+        <v>41</v>
+      </c>
+      <c r="F23" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>高士凱</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>83</v>
+      </c>
+      <c r="D24" t="n">
+        <v>51</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>王人仰</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>84</v>
+      </c>
+      <c r="C25" t="n">
+        <v>73</v>
+      </c>
+      <c r="D25" t="n">
+        <v>45</v>
+      </c>
+      <c r="E25" t="n">
+        <v>86</v>
+      </c>
+      <c r="F25" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>陳逸華</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31</v>
+      </c>
+      <c r="D26" t="n">
+        <v>29</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>李立偉</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>45</v>
+      </c>
+      <c r="C27" t="n">
+        <v>21</v>
+      </c>
+      <c r="D27" t="n">
+        <v>54</v>
+      </c>
+      <c r="E27" t="n">
+        <v>68</v>
+      </c>
+      <c r="F27" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>鞠冠宇</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25</v>
+      </c>
+      <c r="E28" t="n">
+        <v>79</v>
+      </c>
+      <c r="F28" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>陳建香</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>19</v>
+      </c>
+      <c r="C29" t="n">
+        <v>81</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>58</v>
+      </c>
+      <c r="F29" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>陳建香</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" t="n">
+        <v>22</v>
+      </c>
+      <c r="E30" t="n">
+        <v>29</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>李進慧</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>55</v>
+      </c>
+      <c r="C31" t="n">
+        <v>71</v>
+      </c>
+      <c r="D31" t="n">
+        <v>70</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>林向鈺</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C32" t="n">
+        <v>68</v>
+      </c>
+      <c r="D32" t="n">
+        <v>41</v>
+      </c>
+      <c r="E32" t="n">
+        <v>29</v>
+      </c>
+      <c r="F32" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>白美珍</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>36</v>
+      </c>
+      <c r="C33" t="n">
+        <v>45</v>
+      </c>
+      <c r="D33" t="n">
+        <v>27</v>
+      </c>
+      <c r="E33" t="n">
+        <v>96</v>
+      </c>
+      <c r="F33" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>林佳人</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>87</v>
+      </c>
+      <c r="C34" t="n">
+        <v>93</v>
+      </c>
+      <c r="D34" t="n">
+        <v>79</v>
+      </c>
+      <c r="E34" t="n">
+        <v>92</v>
+      </c>
+      <c r="F34" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>蕭淑華</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" t="n">
+        <v>63</v>
+      </c>
+      <c r="D35" t="n">
+        <v>82</v>
+      </c>
+      <c r="E35" t="n">
+        <v>24</v>
+      </c>
+      <c r="F35" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>葉軍仰</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>44</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27</v>
+      </c>
+      <c r="D36" t="n">
+        <v>43</v>
+      </c>
+      <c r="E36" t="n">
+        <v>19</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>郎慧萍</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>99</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>48</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>吳志宣</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>17</v>
+      </c>
+      <c r="C38" t="n">
+        <v>85</v>
+      </c>
+      <c r="D38" t="n">
+        <v>44</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>盧冠發</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>19</v>
+      </c>
+      <c r="C39" t="n">
+        <v>51</v>
+      </c>
+      <c r="D39" t="n">
+        <v>78</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>賴苑禾</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>15</v>
+      </c>
+      <c r="C40" t="n">
+        <v>53</v>
+      </c>
+      <c r="D40" t="n">
+        <v>75</v>
+      </c>
+      <c r="E40" t="n">
+        <v>77</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>陳筱涵</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C41" t="n">
+        <v>67</v>
+      </c>
+      <c r="D41" t="n">
+        <v>85</v>
+      </c>
+      <c r="E41" t="n">
+        <v>43</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>林群清</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>48</v>
+      </c>
+      <c r="C42" t="n">
+        <v>53</v>
+      </c>
+      <c r="D42" t="n">
+        <v>90</v>
+      </c>
+      <c r="E42" t="n">
+        <v>31</v>
+      </c>
+      <c r="F42" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>王品星</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>74</v>
+      </c>
+      <c r="C43" t="n">
+        <v>74</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>劉萬季</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>39</v>
+      </c>
+      <c r="C44" t="n">
+        <v>65</v>
+      </c>
+      <c r="D44" t="n">
+        <v>55</v>
+      </c>
+      <c r="E44" t="n">
+        <v>48</v>
+      </c>
+      <c r="F44" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>吳麗卿</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>70</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>79</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>蔡至剛</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>33</v>
+      </c>
+      <c r="C46" t="n">
+        <v>28</v>
+      </c>
+      <c r="D46" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>程玫靖</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" t="n">
+        <v>65</v>
+      </c>
+      <c r="E47" t="n">
+        <v>50</v>
+      </c>
+      <c r="F47" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>葉軍仰</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>89</v>
+      </c>
+      <c r="C48" t="n">
+        <v>27</v>
+      </c>
+      <c r="D48" t="n">
+        <v>59</v>
+      </c>
+      <c r="E48" t="n">
+        <v>89</v>
+      </c>
+      <c r="F48" t="n">
         <v>98</v>
       </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96</v>
-      </c>
-      <c r="E4" t="n">
-        <v>74</v>
-      </c>
-      <c r="F4" t="n">
-        <v>41</v>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>王良斌</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>76</v>
+      </c>
+      <c r="C49" t="n">
+        <v>93</v>
+      </c>
+      <c r="D49" t="n">
+        <v>27</v>
+      </c>
+      <c r="E49" t="n">
+        <v>55</v>
+      </c>
+      <c r="F49" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>白美珍</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>65</v>
+      </c>
+      <c r="C50" t="n">
+        <v>39</v>
+      </c>
+      <c r="D50" t="n">
+        <v>58</v>
+      </c>
+      <c r="E50" t="n">
+        <v>76</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>鄧亭聿</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>60</v>
+      </c>
+      <c r="C51" t="n">
+        <v>88</v>
+      </c>
+      <c r="D51" t="n">
+        <v>58</v>
+      </c>
+      <c r="E51" t="n">
+        <v>86</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -532,14 +1566,157 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>數學</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>劉林中</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>鄧淑娟</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53</v>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>84</v>
+      </c>
+      <c r="F3" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>游淑惠</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>49</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>楊健麟</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49</v>
+      </c>
+      <c r="E5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>盧冠發</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/lesson12_1/3年6班.xlsx
+++ b/lesson12_1/3年6班.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1105 +454,535 @@
           <t>歷史</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>平均值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>陳姵彬</t>
+          <t>陳淑萍</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>李蓉瑞</t>
+          <t>黃彥孝</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>葉軍仰</t>
+          <t>盧必妍</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>劉佳佩</t>
+          <t>黃善迪</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="E5" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="G5" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>楊健麟</t>
+          <t>劉昀天</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>92</v>
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>簡國瑋</t>
+          <t>游倫城</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>46.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>黃雅慧</t>
+          <t>景歡燦</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>李立偉</t>
+          <t>陳樂紫</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F9" t="n">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G9" t="n">
+        <v>51.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>黃佩玲</t>
+          <t>謝佳穎</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E10" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>58.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>蔡孟泉</t>
+          <t>林建宏</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C11" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>47.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>楊易政</t>
+          <t>陳信宏</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C12" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="G12" t="n">
+        <v>51.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>楊韋廷</t>
+          <t>王泓泰</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>79</v>
+        <v>92</v>
+      </c>
+      <c r="G13" t="n">
+        <v>78.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>昌嘉洋</t>
+          <t>龔姵君</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>沈心利</t>
+          <t>吳昕婷</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="G15" t="n">
+        <v>62.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>陳建香</t>
+          <t>黃彥孝</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="G16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>余丞苓</t>
+          <t>鄭孟芳</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>藍哲嘉</t>
+          <t>高智超</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C18" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E18" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F18" t="n">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="G18" t="n">
+        <v>60.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>蔡士賢</t>
+          <t>張雅芬</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
+        <v>94</v>
+      </c>
+      <c r="E19" t="n">
+        <v>86</v>
+      </c>
+      <c r="F19" t="n">
         <v>76</v>
       </c>
-      <c r="E19" t="n">
-        <v>31</v>
-      </c>
-      <c r="F19" t="n">
-        <v>43</v>
+      <c r="G19" t="n">
+        <v>70.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>林淑安</t>
+          <t>楊易政</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>陳奇瑄</t>
+          <t>蔡世馨</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C21" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F21" t="n">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="G21" t="n">
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>蔡至剛</t>
+          <t>平均值</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>53.45</v>
       </c>
       <c r="C22" t="n">
-        <v>48</v>
+        <v>52.55</v>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>54.3</v>
       </c>
       <c r="E22" t="n">
-        <v>92</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>李佳彥</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>62</v>
-      </c>
-      <c r="C23" t="n">
-        <v>55</v>
-      </c>
-      <c r="D23" t="n">
-        <v>49</v>
-      </c>
-      <c r="E23" t="n">
-        <v>41</v>
-      </c>
-      <c r="F23" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>高士凱</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C24" t="n">
-        <v>83</v>
-      </c>
-      <c r="D24" t="n">
-        <v>51</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10</v>
-      </c>
-      <c r="F24" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>王人仰</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>84</v>
-      </c>
-      <c r="C25" t="n">
-        <v>73</v>
-      </c>
-      <c r="D25" t="n">
-        <v>45</v>
-      </c>
-      <c r="E25" t="n">
-        <v>86</v>
-      </c>
-      <c r="F25" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>陳逸華</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>8</v>
-      </c>
-      <c r="C26" t="n">
-        <v>31</v>
-      </c>
-      <c r="D26" t="n">
-        <v>29</v>
-      </c>
-      <c r="E26" t="n">
-        <v>15</v>
-      </c>
-      <c r="F26" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>李立偉</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>45</v>
-      </c>
-      <c r="C27" t="n">
-        <v>21</v>
-      </c>
-      <c r="D27" t="n">
-        <v>54</v>
-      </c>
-      <c r="E27" t="n">
-        <v>68</v>
-      </c>
-      <c r="F27" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>鞠冠宇</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>25</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>25</v>
-      </c>
-      <c r="E28" t="n">
-        <v>79</v>
-      </c>
-      <c r="F28" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>陳建香</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>19</v>
-      </c>
-      <c r="C29" t="n">
-        <v>81</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>58</v>
-      </c>
-      <c r="F29" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>陳建香</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" t="n">
-        <v>22</v>
-      </c>
-      <c r="E30" t="n">
-        <v>29</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>李進慧</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>55</v>
-      </c>
-      <c r="C31" t="n">
-        <v>71</v>
-      </c>
-      <c r="D31" t="n">
-        <v>70</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10</v>
-      </c>
-      <c r="F31" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>林向鈺</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>67</v>
-      </c>
-      <c r="C32" t="n">
-        <v>68</v>
-      </c>
-      <c r="D32" t="n">
-        <v>41</v>
-      </c>
-      <c r="E32" t="n">
-        <v>29</v>
-      </c>
-      <c r="F32" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>白美珍</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>36</v>
-      </c>
-      <c r="C33" t="n">
-        <v>45</v>
-      </c>
-      <c r="D33" t="n">
-        <v>27</v>
-      </c>
-      <c r="E33" t="n">
-        <v>96</v>
-      </c>
-      <c r="F33" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>林佳人</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>87</v>
-      </c>
-      <c r="C34" t="n">
-        <v>93</v>
-      </c>
-      <c r="D34" t="n">
-        <v>79</v>
-      </c>
-      <c r="E34" t="n">
-        <v>92</v>
-      </c>
-      <c r="F34" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>蕭淑華</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>17</v>
-      </c>
-      <c r="C35" t="n">
-        <v>63</v>
-      </c>
-      <c r="D35" t="n">
-        <v>82</v>
-      </c>
-      <c r="E35" t="n">
-        <v>24</v>
-      </c>
-      <c r="F35" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>葉軍仰</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>44</v>
-      </c>
-      <c r="C36" t="n">
-        <v>27</v>
-      </c>
-      <c r="D36" t="n">
-        <v>43</v>
-      </c>
-      <c r="E36" t="n">
-        <v>19</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>郎慧萍</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>99</v>
-      </c>
-      <c r="C37" t="n">
-        <v>10</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>48</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>吳志宣</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>17</v>
-      </c>
-      <c r="C38" t="n">
-        <v>85</v>
-      </c>
-      <c r="D38" t="n">
-        <v>44</v>
-      </c>
-      <c r="E38" t="n">
-        <v>16</v>
-      </c>
-      <c r="F38" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>盧冠發</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>19</v>
-      </c>
-      <c r="C39" t="n">
-        <v>51</v>
-      </c>
-      <c r="D39" t="n">
-        <v>78</v>
-      </c>
-      <c r="E39" t="n">
-        <v>12</v>
-      </c>
-      <c r="F39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>賴苑禾</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>15</v>
-      </c>
-      <c r="C40" t="n">
-        <v>53</v>
-      </c>
-      <c r="D40" t="n">
-        <v>75</v>
-      </c>
-      <c r="E40" t="n">
-        <v>77</v>
-      </c>
-      <c r="F40" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>陳筱涵</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C41" t="n">
-        <v>67</v>
-      </c>
-      <c r="D41" t="n">
-        <v>85</v>
-      </c>
-      <c r="E41" t="n">
-        <v>43</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>林群清</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>48</v>
-      </c>
-      <c r="C42" t="n">
-        <v>53</v>
-      </c>
-      <c r="D42" t="n">
-        <v>90</v>
-      </c>
-      <c r="E42" t="n">
-        <v>31</v>
-      </c>
-      <c r="F42" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>王品星</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>74</v>
-      </c>
-      <c r="C43" t="n">
-        <v>74</v>
-      </c>
-      <c r="D43" t="n">
-        <v>7</v>
-      </c>
-      <c r="E43" t="n">
-        <v>10</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>劉萬季</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>39</v>
-      </c>
-      <c r="C44" t="n">
-        <v>65</v>
-      </c>
-      <c r="D44" t="n">
-        <v>55</v>
-      </c>
-      <c r="E44" t="n">
-        <v>48</v>
-      </c>
-      <c r="F44" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>吳麗卿</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" t="n">
-        <v>70</v>
-      </c>
-      <c r="D45" t="n">
-        <v>8</v>
-      </c>
-      <c r="E45" t="n">
-        <v>79</v>
-      </c>
-      <c r="F45" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>蔡至剛</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>33</v>
-      </c>
-      <c r="C46" t="n">
-        <v>28</v>
-      </c>
-      <c r="D46" t="n">
-        <v>46</v>
-      </c>
-      <c r="E46" t="n">
-        <v>17</v>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>程玫靖</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4</v>
-      </c>
-      <c r="C47" t="n">
-        <v>46</v>
-      </c>
-      <c r="D47" t="n">
-        <v>65</v>
-      </c>
-      <c r="E47" t="n">
-        <v>50</v>
-      </c>
-      <c r="F47" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>葉軍仰</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>89</v>
-      </c>
-      <c r="C48" t="n">
-        <v>27</v>
-      </c>
-      <c r="D48" t="n">
-        <v>59</v>
-      </c>
-      <c r="E48" t="n">
-        <v>89</v>
-      </c>
-      <c r="F48" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>王良斌</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>76</v>
-      </c>
-      <c r="C49" t="n">
-        <v>93</v>
-      </c>
-      <c r="D49" t="n">
-        <v>27</v>
-      </c>
-      <c r="E49" t="n">
-        <v>55</v>
-      </c>
-      <c r="F49" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>白美珍</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>65</v>
-      </c>
-      <c r="C50" t="n">
-        <v>39</v>
-      </c>
-      <c r="D50" t="n">
-        <v>58</v>
-      </c>
-      <c r="E50" t="n">
-        <v>76</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>鄧亭聿</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>60</v>
-      </c>
-      <c r="C51" t="n">
-        <v>88</v>
-      </c>
-      <c r="D51" t="n">
-        <v>58</v>
-      </c>
-      <c r="E51" t="n">
-        <v>86</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
+        <v>47.95</v>
+      </c>
+      <c r="G22" t="n">
+        <v>54.63000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,115 +1035,510 @@
           <t>歷史</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>平均值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>劉林中</t>
+          <t>林建宏</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>57</v>
+        <v>97</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>鄧淑娟</t>
+          <t>藍哲嘉</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>97</v>
+        <v>47</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>游淑惠</t>
+          <t>陳家維</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>楊健麟</t>
+          <t>王士銘</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>86</v>
+      </c>
+      <c r="G5" t="n">
+        <v>52.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>盧冠發</t>
+          <t>蒙淑惠</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>83</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>93</v>
+      </c>
+      <c r="E6" t="n">
+        <v>79</v>
+      </c>
+      <c r="F6" t="n">
+        <v>77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>74.40000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>林佳光</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>杜儀鳳</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>85</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>周芷蓁</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>43</v>
+      </c>
+      <c r="C9" t="n">
+        <v>86</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>89</v>
+      </c>
+      <c r="G9" t="n">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>陳淑娟</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>61</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>林建宏</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47</v>
+      </c>
+      <c r="D11" t="n">
+        <v>85</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>陳信宏</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>99</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>74</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>鄭憲定</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>95</v>
+      </c>
+      <c r="E13" t="n">
+        <v>36</v>
+      </c>
+      <c r="F13" t="n">
+        <v>73</v>
+      </c>
+      <c r="G13" t="n">
+        <v>77.59999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>鄭憲定</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>88</v>
+      </c>
+      <c r="D14" t="n">
+        <v>65</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>36</v>
+      </c>
+      <c r="G14" t="n">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>簡美君</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91</v>
+      </c>
+      <c r="C15" t="n">
+        <v>88</v>
+      </c>
+      <c r="D15" t="n">
+        <v>32</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19</v>
+      </c>
+      <c r="G15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>周家銘</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>39</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>92</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>43</v>
+      </c>
+      <c r="G16" t="n">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>沈心利</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21</v>
+      </c>
+      <c r="E17" t="n">
+        <v>33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22</v>
+      </c>
+      <c r="G17" t="n">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>蔡孟泉</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>73</v>
+      </c>
+      <c r="C18" t="n">
+        <v>67</v>
+      </c>
+      <c r="D18" t="n">
         <v>44</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E18" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60</v>
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>鄭憲定</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>75</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25</v>
+      </c>
+      <c r="E19" t="n">
+        <v>42</v>
+      </c>
+      <c r="F19" t="n">
+        <v>74</v>
+      </c>
+      <c r="G19" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>黃靜怡</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>21</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>75</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>昌嘉洋</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>63</v>
+      </c>
+      <c r="C21" t="n">
+        <v>80</v>
+      </c>
+      <c r="D21" t="n">
+        <v>89</v>
+      </c>
+      <c r="E21" t="n">
+        <v>58</v>
+      </c>
+      <c r="F21" t="n">
+        <v>73</v>
+      </c>
+      <c r="G21" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
   </sheetData>
